--- a/data/techno_economic/thesis_costs_2030.xlsx
+++ b/data/techno_economic/thesis_costs_2030.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\work\pypsa_thesis\data\techno_economic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3EB799-4919-419D-8D1C-6887BE6307A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D102106-6B59-48C6-A2A5-C0551595689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94C9781F-37AB-4585-B875-50DC81609549}"/>
   </bookViews>
@@ -40,12 +40,6 @@
     <t>carrier</t>
   </si>
   <si>
-    <t>marginal_costs</t>
-  </si>
-  <si>
-    <t>capital_costs</t>
-  </si>
-  <si>
     <t>Hydrogen</t>
   </si>
   <si>
@@ -92,6 +86,12 @@
   </si>
   <si>
     <t>H2_pipeline</t>
+  </si>
+  <si>
+    <t>capital_costs (Eur/MWh)</t>
+  </si>
+  <si>
+    <t>marginal_costs (Eur/MWh)</t>
   </si>
 </sst>
 </file>
@@ -455,14 +455,14 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>12464.1760387178</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>11586.7943898351</v>
@@ -517,14 +517,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>7389.3840258119299</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1937.8705137955101</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>6588.4906278897197</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>4003.5786674985902</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>4126.1553872146796</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>14582.356401244</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>14582.356401244</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1577.9503086120101</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>1885.99506583333</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>459.518536218902</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>982.87838021812195</v>
